--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2016019\Desktop\Bouncer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2016019\Desktop\git\Deflect-Duel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD92465-1397-42DB-A71C-65EAD75EDD49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0B4A3E-13A5-4959-A0DC-EE11FD4EF3C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3816" yWindow="2112" windowWidth="16632" windowHeight="12372" tabRatio="751" xr2:uid="{48E64F84-7156-4BD1-8439-6260ED085CBC}"/>
+    <workbookView xWindow="3816" yWindow="2112" windowWidth="16632" windowHeight="12372" tabRatio="751" activeTab="2" xr2:uid="{48E64F84-7156-4BD1-8439-6260ED085CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="全体像" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="342">
   <si>
     <t>・仕様書</t>
     <rPh sb="1" eb="4">
@@ -2706,10 +2706,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>wd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2719,6 +2715,34 @@
   </si>
   <si>
     <t>space</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人数2～4人</t>
+    <rPh sb="0" eb="2">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル対戦</t>
+    <rPh sb="4" eb="6">
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッド前提</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3871,6 +3895,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3888,9 +3915,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5470,7 +5494,7 @@
                   <a14:compatExt spid="_x0000_s7170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000021C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000021C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5537,7 +5561,7 @@
                   <a14:compatExt spid="_x0000_s7171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000031C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000031C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5604,7 +5628,7 @@
                   <a14:compatExt spid="_x0000_s7172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000041C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000041C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5671,7 +5695,7 @@
                   <a14:compatExt spid="_x0000_s7173"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000051C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000051C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5738,7 +5762,7 @@
                   <a14:compatExt spid="_x0000_s7174"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000061C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000061C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5805,7 +5829,7 @@
                   <a14:compatExt spid="_x0000_s7175"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000071C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000071C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5872,7 +5896,7 @@
                   <a14:compatExt spid="_x0000_s7177"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000091C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000091C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5939,7 +5963,7 @@
                   <a14:compatExt spid="_x0000_s7178"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6006,7 +6030,7 @@
                   <a14:compatExt spid="_x0000_s7179"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6073,7 +6097,7 @@
                   <a14:compatExt spid="_x0000_s7180"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6140,7 +6164,7 @@
                   <a14:compatExt spid="_x0000_s7181"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6207,7 +6231,7 @@
                   <a14:compatExt spid="_x0000_s7182"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6274,7 +6298,7 @@
                   <a14:compatExt spid="_x0000_s7183"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6341,7 +6365,7 @@
                   <a14:compatExt spid="_x0000_s7184"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000101C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000101C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6408,7 +6432,7 @@
                   <a14:compatExt spid="_x0000_s7185"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000111C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000111C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6475,7 +6499,7 @@
                   <a14:compatExt spid="_x0000_s7188"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000141C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000141C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6542,7 +6566,7 @@
                   <a14:compatExt spid="_x0000_s7189"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000151C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000151C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6609,7 +6633,7 @@
                   <a14:compatExt spid="_x0000_s7190"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000161C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000161C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6676,7 +6700,7 @@
                   <a14:compatExt spid="_x0000_s7191"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000171C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000171C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6743,7 +6767,7 @@
                   <a14:compatExt spid="_x0000_s7192"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000181C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000181C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6810,7 +6834,7 @@
                   <a14:compatExt spid="_x0000_s7193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000191C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000191C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6877,7 +6901,7 @@
                   <a14:compatExt spid="_x0000_s7194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6944,7 +6968,7 @@
                   <a14:compatExt spid="_x0000_s7195"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7011,7 +7035,7 @@
                   <a14:compatExt spid="_x0000_s7197"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7078,7 +7102,7 @@
                   <a14:compatExt spid="_x0000_s7198"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7145,7 +7169,7 @@
                   <a14:compatExt spid="_x0000_s7199"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7212,7 +7236,7 @@
                   <a14:compatExt spid="_x0000_s7203"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000231C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000231C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7279,7 +7303,7 @@
                   <a14:compatExt spid="_x0000_s7204"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000241C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000241C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7346,7 +7370,7 @@
                   <a14:compatExt spid="_x0000_s7205"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000251C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000251C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7413,7 +7437,7 @@
                   <a14:compatExt spid="_x0000_s7206"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000261C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000261C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7480,7 +7504,7 @@
                   <a14:compatExt spid="_x0000_s7207"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000271C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000271C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7547,7 +7571,7 @@
                   <a14:compatExt spid="_x0000_s7208"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000281C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000281C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7614,7 +7638,7 @@
                   <a14:compatExt spid="_x0000_s7209"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000291C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000291C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7681,7 +7705,7 @@
                   <a14:compatExt spid="_x0000_s7210"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7748,7 +7772,7 @@
                   <a14:compatExt spid="_x0000_s7211"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7815,7 +7839,7 @@
                   <a14:compatExt spid="_x0000_s7213"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7882,7 +7906,7 @@
                   <a14:compatExt spid="_x0000_s7214"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7949,7 +7973,7 @@
                   <a14:compatExt spid="_x0000_s7216"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000301C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000301C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8016,7 +8040,7 @@
                   <a14:compatExt spid="_x0000_s7218"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000321C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000321C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8083,7 +8107,7 @@
                   <a14:compatExt spid="_x0000_s7219"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000331C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000331C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8150,7 +8174,7 @@
                   <a14:compatExt spid="_x0000_s7220"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000341C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000341C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8217,7 +8241,7 @@
                   <a14:compatExt spid="_x0000_s7222"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000361C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000361C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8284,7 +8308,7 @@
                   <a14:compatExt spid="_x0000_s7224"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000381C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000381C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8351,7 +8375,7 @@
                   <a14:compatExt spid="_x0000_s7226"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8418,7 +8442,7 @@
                   <a14:compatExt spid="_x0000_s7227"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8485,7 +8509,7 @@
                   <a14:compatExt spid="_x0000_s7228"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8552,7 +8576,7 @@
                   <a14:compatExt spid="_x0000_s7230"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8619,7 +8643,7 @@
                   <a14:compatExt spid="_x0000_s7231"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8686,7 +8710,7 @@
                   <a14:compatExt spid="_x0000_s7232"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000401C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000401C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8753,7 +8777,7 @@
                   <a14:compatExt spid="_x0000_s7233"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000411C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000411C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8820,7 +8844,7 @@
                   <a14:compatExt spid="_x0000_s7236"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000441C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000441C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8887,7 +8911,7 @@
                   <a14:compatExt spid="_x0000_s7238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000461C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000461C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8954,7 +8978,7 @@
                   <a14:compatExt spid="_x0000_s7241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000491C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000491C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9021,7 +9045,7 @@
                   <a14:compatExt spid="_x0000_s7242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004A1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9088,7 +9112,7 @@
                   <a14:compatExt spid="_x0000_s7243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9155,7 +9179,7 @@
                   <a14:compatExt spid="_x0000_s7244"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004C1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9222,7 +9246,7 @@
                   <a14:compatExt spid="_x0000_s7245"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004D1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9289,7 +9313,7 @@
                   <a14:compatExt spid="_x0000_s7246"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004E1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9356,7 +9380,7 @@
                   <a14:compatExt spid="_x0000_s7247"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004F1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9423,7 +9447,7 @@
                   <a14:compatExt spid="_x0000_s7248"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000501C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000501C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9490,7 +9514,7 @@
                   <a14:compatExt spid="_x0000_s7249"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000511C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000511C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9557,7 +9581,7 @@
                   <a14:compatExt spid="_x0000_s7250"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000521C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000521C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9624,7 +9648,7 @@
                   <a14:compatExt spid="_x0000_s7251"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000531C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000531C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9691,7 +9715,7 @@
                   <a14:compatExt spid="_x0000_s7252"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000541C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000541C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9758,7 +9782,7 @@
                   <a14:compatExt spid="_x0000_s7253"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000551C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000551C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9825,7 +9849,7 @@
                   <a14:compatExt spid="_x0000_s7254"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000561C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000561C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9892,7 +9916,7 @@
                   <a14:compatExt spid="_x0000_s7255"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000571C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000571C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9959,7 +9983,7 @@
                   <a14:compatExt spid="_x0000_s7256"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000581C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000581C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10026,7 +10050,7 @@
                   <a14:compatExt spid="_x0000_s7257"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000591C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000591C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10093,7 +10117,7 @@
                   <a14:compatExt spid="_x0000_s7258"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10160,7 +10184,7 @@
                   <a14:compatExt spid="_x0000_s7259"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10227,7 +10251,7 @@
                   <a14:compatExt spid="_x0000_s7260"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005C1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10294,7 +10318,7 @@
                   <a14:compatExt spid="_x0000_s7261"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005D1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10361,7 +10385,7 @@
                   <a14:compatExt spid="_x0000_s7262"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005E1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10428,7 +10452,7 @@
                   <a14:compatExt spid="_x0000_s7263"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10495,7 +10519,7 @@
                   <a14:compatExt spid="_x0000_s7264"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000601C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000601C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10562,7 +10586,7 @@
                   <a14:compatExt spid="_x0000_s7265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000611C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000611C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10629,7 +10653,7 @@
                   <a14:compatExt spid="_x0000_s7266"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000621C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000621C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10696,7 +10720,7 @@
                   <a14:compatExt spid="_x0000_s7267"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000631C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000631C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10763,7 +10787,7 @@
                   <a14:compatExt spid="_x0000_s7268"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000641C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000641C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10830,7 +10854,7 @@
                   <a14:compatExt spid="_x0000_s7269"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000651C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000651C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10897,7 +10921,7 @@
                   <a14:compatExt spid="_x0000_s7270"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000661C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000661C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10964,7 +10988,7 @@
                   <a14:compatExt spid="_x0000_s7271"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000671C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000671C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11031,7 +11055,7 @@
                   <a14:compatExt spid="_x0000_s7272"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000681C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000681C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11098,7 +11122,7 @@
                   <a14:compatExt spid="_x0000_s7273"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000691C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000691C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11165,7 +11189,7 @@
                   <a14:compatExt spid="_x0000_s7274"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006A1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11232,7 +11256,7 @@
                   <a14:compatExt spid="_x0000_s7275"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11299,7 +11323,7 @@
                   <a14:compatExt spid="_x0000_s7276"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006C1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11366,7 +11390,7 @@
                   <a14:compatExt spid="_x0000_s7277"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11433,7 +11457,7 @@
                   <a14:compatExt spid="_x0000_s7278"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11500,7 +11524,7 @@
                   <a14:compatExt spid="_x0000_s7279"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11567,7 +11591,7 @@
                   <a14:compatExt spid="_x0000_s7280"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000701C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000701C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11634,7 +11658,7 @@
                   <a14:compatExt spid="_x0000_s7281"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000711C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000711C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11701,7 +11725,7 @@
                   <a14:compatExt spid="_x0000_s7282"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000721C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000721C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11768,7 +11792,7 @@
                   <a14:compatExt spid="_x0000_s7283"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000731C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000731C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11835,7 +11859,7 @@
                   <a14:compatExt spid="_x0000_s7284"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000741C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000741C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11902,7 +11926,7 @@
                   <a14:compatExt spid="_x0000_s7285"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000751C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000751C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11969,7 +11993,7 @@
                   <a14:compatExt spid="_x0000_s7286"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000761C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000761C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12036,7 +12060,7 @@
                   <a14:compatExt spid="_x0000_s7287"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000771C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000771C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12103,7 +12127,7 @@
                   <a14:compatExt spid="_x0000_s7288"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000781C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000781C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12170,7 +12194,7 @@
                   <a14:compatExt spid="_x0000_s7289"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000791C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000791C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12237,7 +12261,7 @@
                   <a14:compatExt spid="_x0000_s7290"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007A1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12304,7 +12328,7 @@
                   <a14:compatExt spid="_x0000_s7291"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12371,7 +12395,7 @@
                   <a14:compatExt spid="_x0000_s7292"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007C1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12438,7 +12462,7 @@
                   <a14:compatExt spid="_x0000_s7293"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007D1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12505,7 +12529,7 @@
                   <a14:compatExt spid="_x0000_s7294"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007E1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12572,7 +12596,7 @@
                   <a14:compatExt spid="_x0000_s7295"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007F1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12639,7 +12663,7 @@
                   <a14:compatExt spid="_x0000_s7296"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000801C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000801C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12706,7 +12730,7 @@
                   <a14:compatExt spid="_x0000_s7297"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000811C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000811C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12773,7 +12797,7 @@
                   <a14:compatExt spid="_x0000_s7298"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000821C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000821C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12840,7 +12864,7 @@
                   <a14:compatExt spid="_x0000_s7299"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000831C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000831C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12907,7 +12931,7 @@
                   <a14:compatExt spid="_x0000_s7300"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000841C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000841C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12974,7 +12998,7 @@
                   <a14:compatExt spid="_x0000_s7301"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000851C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000851C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13041,7 +13065,7 @@
                   <a14:compatExt spid="_x0000_s7302"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000861C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000861C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13108,7 +13132,7 @@
                   <a14:compatExt spid="_x0000_s7303"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000871C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000871C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13175,7 +13199,7 @@
                   <a14:compatExt spid="_x0000_s7304"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000881C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000881C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13242,7 +13266,7 @@
                   <a14:compatExt spid="_x0000_s7305"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000891C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000891C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13309,7 +13333,7 @@
                   <a14:compatExt spid="_x0000_s7306"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008A1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13376,7 +13400,7 @@
                   <a14:compatExt spid="_x0000_s7307"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13443,7 +13467,7 @@
                   <a14:compatExt spid="_x0000_s7308"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008C1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13510,7 +13534,7 @@
                   <a14:compatExt spid="_x0000_s7309"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008D1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13577,7 +13601,7 @@
                   <a14:compatExt spid="_x0000_s7310"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008E1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13644,7 +13668,7 @@
                   <a14:compatExt spid="_x0000_s7311"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008F1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00008F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13711,7 +13735,7 @@
                   <a14:compatExt spid="_x0000_s7312"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000901C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000901C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13778,7 +13802,7 @@
                   <a14:compatExt spid="_x0000_s7313"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000911C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000911C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13845,7 +13869,7 @@
                   <a14:compatExt spid="_x0000_s7314"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000921C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000921C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13912,7 +13936,7 @@
                   <a14:compatExt spid="_x0000_s7315"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000931C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000931C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13979,7 +14003,7 @@
                   <a14:compatExt spid="_x0000_s7316"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000941C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000941C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14046,7 +14070,7 @@
                   <a14:compatExt spid="_x0000_s7317"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000951C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000951C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14113,7 +14137,7 @@
                   <a14:compatExt spid="_x0000_s7318"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000961C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000961C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14180,7 +14204,7 @@
                   <a14:compatExt spid="_x0000_s7319"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000971C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000971C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14247,7 +14271,7 @@
                   <a14:compatExt spid="_x0000_s7320"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000981C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000981C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14314,7 +14338,7 @@
                   <a14:compatExt spid="_x0000_s7321"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000991C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000991C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14381,7 +14405,7 @@
                   <a14:compatExt spid="_x0000_s7322"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009A1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009A1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14448,7 +14472,7 @@
                   <a14:compatExt spid="_x0000_s7323"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009B1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009B1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14515,7 +14539,7 @@
                   <a14:compatExt spid="_x0000_s7324"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009C1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009C1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14582,7 +14606,7 @@
                   <a14:compatExt spid="_x0000_s7325"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009D1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009D1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14649,7 +14673,7 @@
                   <a14:compatExt spid="_x0000_s7326"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009E1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009E1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14716,7 +14740,7 @@
                   <a14:compatExt spid="_x0000_s7327"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009F1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009F1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14783,7 +14807,7 @@
                   <a14:compatExt spid="_x0000_s7328"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A01C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A01C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14850,7 +14874,7 @@
                   <a14:compatExt spid="_x0000_s7329"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A11C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A11C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14917,7 +14941,7 @@
                   <a14:compatExt spid="_x0000_s7330"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A21C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A21C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14984,7 +15008,7 @@
                   <a14:compatExt spid="_x0000_s7331"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A31C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A31C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15051,7 +15075,7 @@
                   <a14:compatExt spid="_x0000_s7332"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A41C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A41C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15118,7 +15142,7 @@
                   <a14:compatExt spid="_x0000_s7333"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A51C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A51C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15185,7 +15209,7 @@
                   <a14:compatExt spid="_x0000_s7334"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A61C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A61C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15252,7 +15276,7 @@
                   <a14:compatExt spid="_x0000_s7335"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A71C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A71C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15319,7 +15343,7 @@
                   <a14:compatExt spid="_x0000_s7336"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A81C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A81C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15386,7 +15410,7 @@
                   <a14:compatExt spid="_x0000_s7337"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A91C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A91C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15453,7 +15477,7 @@
                   <a14:compatExt spid="_x0000_s7338"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AA1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AA1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15520,7 +15544,7 @@
                   <a14:compatExt spid="_x0000_s7339"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AB1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AB1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15587,7 +15611,7 @@
                   <a14:compatExt spid="_x0000_s7340"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AC1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AC1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15654,7 +15678,7 @@
                   <a14:compatExt spid="_x0000_s7341"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AD1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AD1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15721,7 +15745,7 @@
                   <a14:compatExt spid="_x0000_s7342"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AE1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AE1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15788,7 +15812,7 @@
                   <a14:compatExt spid="_x0000_s7343"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AF1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AF1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15855,7 +15879,7 @@
                   <a14:compatExt spid="_x0000_s7344"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B01C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B01C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15922,7 +15946,7 @@
                   <a14:compatExt spid="_x0000_s7345"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B11C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B11C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15989,7 +16013,7 @@
                   <a14:compatExt spid="_x0000_s7346"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B21C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B21C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16056,7 +16080,7 @@
                   <a14:compatExt spid="_x0000_s7347"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B31C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B31C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16123,7 +16147,7 @@
                   <a14:compatExt spid="_x0000_s7348"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B41C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B41C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16190,7 +16214,7 @@
                   <a14:compatExt spid="_x0000_s7349"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B51C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B51C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16257,7 +16281,7 @@
                   <a14:compatExt spid="_x0000_s7350"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B61C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B61C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16324,7 +16348,7 @@
                   <a14:compatExt spid="_x0000_s7351"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B71C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B71C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16391,7 +16415,7 @@
                   <a14:compatExt spid="_x0000_s7352"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B81C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B81C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16458,7 +16482,7 @@
                   <a14:compatExt spid="_x0000_s7353"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B91C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B91C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16525,7 +16549,7 @@
                   <a14:compatExt spid="_x0000_s7354"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BA1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BA1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16592,7 +16616,7 @@
                   <a14:compatExt spid="_x0000_s7355"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BB1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BB1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16659,7 +16683,7 @@
                   <a14:compatExt spid="_x0000_s7356"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BC1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BC1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16726,7 +16750,7 @@
                   <a14:compatExt spid="_x0000_s7357"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BD1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BD1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16793,7 +16817,7 @@
                   <a14:compatExt spid="_x0000_s7358"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BE1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BE1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16860,7 +16884,7 @@
                   <a14:compatExt spid="_x0000_s7359"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BF1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BF1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16927,7 +16951,7 @@
                   <a14:compatExt spid="_x0000_s7360"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C01C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C01C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16994,7 +17018,7 @@
                   <a14:compatExt spid="_x0000_s7361"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C11C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C11C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17061,7 +17085,7 @@
                   <a14:compatExt spid="_x0000_s7362"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C21C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C21C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17128,7 +17152,7 @@
                   <a14:compatExt spid="_x0000_s7363"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C31C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C31C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17195,7 +17219,7 @@
                   <a14:compatExt spid="_x0000_s7364"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C41C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C41C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17262,7 +17286,7 @@
                   <a14:compatExt spid="_x0000_s7365"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C51C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C51C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17329,7 +17353,7 @@
                   <a14:compatExt spid="_x0000_s7366"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C61C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C61C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17396,7 +17420,7 @@
                   <a14:compatExt spid="_x0000_s7367"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C71C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C71C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17463,7 +17487,7 @@
                   <a14:compatExt spid="_x0000_s7368"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C81C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C81C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17530,7 +17554,7 @@
                   <a14:compatExt spid="_x0000_s7369"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C91C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C91C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17597,7 +17621,7 @@
                   <a14:compatExt spid="_x0000_s7370"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CA1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CA1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17664,7 +17688,7 @@
                   <a14:compatExt spid="_x0000_s7371"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CB1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CB1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17731,7 +17755,7 @@
                   <a14:compatExt spid="_x0000_s7372"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CC1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CC1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17798,7 +17822,7 @@
                   <a14:compatExt spid="_x0000_s7373"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CD1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CD1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17865,7 +17889,7 @@
                   <a14:compatExt spid="_x0000_s7374"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CE1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CE1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17932,7 +17956,7 @@
                   <a14:compatExt spid="_x0000_s7375"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CF1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CF1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17999,7 +18023,7 @@
                   <a14:compatExt spid="_x0000_s7376"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D01C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D01C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18066,7 +18090,7 @@
                   <a14:compatExt spid="_x0000_s7377"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D11C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D11C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18133,7 +18157,7 @@
                   <a14:compatExt spid="_x0000_s7378"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D21C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D21C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18200,7 +18224,7 @@
                   <a14:compatExt spid="_x0000_s7379"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D31C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D31C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18267,7 +18291,7 @@
                   <a14:compatExt spid="_x0000_s7380"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D41C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D41C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18334,7 +18358,7 @@
                   <a14:compatExt spid="_x0000_s7381"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D51C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D51C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18401,7 +18425,7 @@
                   <a14:compatExt spid="_x0000_s7382"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D61C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D61C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18468,7 +18492,7 @@
                   <a14:compatExt spid="_x0000_s7383"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D71C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D71C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18535,7 +18559,7 @@
                   <a14:compatExt spid="_x0000_s7384"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D81C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D81C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18602,7 +18626,7 @@
                   <a14:compatExt spid="_x0000_s7385"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D91C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D91C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18669,7 +18693,7 @@
                   <a14:compatExt spid="_x0000_s7386"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DA1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DA1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18736,7 +18760,7 @@
                   <a14:compatExt spid="_x0000_s7387"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DB1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DB1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18803,7 +18827,7 @@
                   <a14:compatExt spid="_x0000_s7388"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DC1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DC1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18870,7 +18894,7 @@
                   <a14:compatExt spid="_x0000_s7389"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DD1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DD1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18937,7 +18961,7 @@
                   <a14:compatExt spid="_x0000_s7390"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DE1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DE1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19004,7 +19028,7 @@
                   <a14:compatExt spid="_x0000_s7391"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DF1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DF1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19071,7 +19095,7 @@
                   <a14:compatExt spid="_x0000_s7392"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E01C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E01C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19138,7 +19162,7 @@
                   <a14:compatExt spid="_x0000_s7393"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E11C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E11C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19205,7 +19229,7 @@
                   <a14:compatExt spid="_x0000_s7394"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E21C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E21C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19272,7 +19296,7 @@
                   <a14:compatExt spid="_x0000_s7395"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E31C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E31C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19339,7 +19363,7 @@
                   <a14:compatExt spid="_x0000_s7396"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E41C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E41C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19406,7 +19430,7 @@
                   <a14:compatExt spid="_x0000_s7397"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E51C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E51C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19473,7 +19497,7 @@
                   <a14:compatExt spid="_x0000_s7398"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E61C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E61C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19540,7 +19564,7 @@
                   <a14:compatExt spid="_x0000_s7399"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E71C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E71C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19607,7 +19631,7 @@
                   <a14:compatExt spid="_x0000_s7400"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E81C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E81C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19674,7 +19698,7 @@
                   <a14:compatExt spid="_x0000_s7401"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E91C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E91C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19741,7 +19765,7 @@
                   <a14:compatExt spid="_x0000_s7402"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EA1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EA1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19808,7 +19832,7 @@
                   <a14:compatExt spid="_x0000_s7403"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EB1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EB1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19875,7 +19899,7 @@
                   <a14:compatExt spid="_x0000_s7404"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EC1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EC1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19942,7 +19966,7 @@
                   <a14:compatExt spid="_x0000_s7405"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000ED1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000ED1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20009,7 +20033,7 @@
                   <a14:compatExt spid="_x0000_s7406"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EE1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EE1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20076,7 +20100,7 @@
                   <a14:compatExt spid="_x0000_s7407"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EF1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000EF1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20143,7 +20167,7 @@
                   <a14:compatExt spid="_x0000_s7408"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F01C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F01C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20210,7 +20234,7 @@
                   <a14:compatExt spid="_x0000_s7409"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F11C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F11C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20277,7 +20301,7 @@
                   <a14:compatExt spid="_x0000_s7410"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F21C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F21C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20344,7 +20368,7 @@
                   <a14:compatExt spid="_x0000_s7411"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F31C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F31C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20411,7 +20435,7 @@
                   <a14:compatExt spid="_x0000_s7412"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F41C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F41C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20478,7 +20502,7 @@
                   <a14:compatExt spid="_x0000_s7413"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F51C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F51C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20545,7 +20569,7 @@
                   <a14:compatExt spid="_x0000_s7414"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F61C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F61C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20612,7 +20636,7 @@
                   <a14:compatExt spid="_x0000_s7415"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F71C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F71C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20679,7 +20703,7 @@
                   <a14:compatExt spid="_x0000_s7416"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F81C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F81C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20746,7 +20770,7 @@
                   <a14:compatExt spid="_x0000_s7417"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F91C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000F91C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20813,7 +20837,7 @@
                   <a14:compatExt spid="_x0000_s7418"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FA1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FA1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20880,7 +20904,7 @@
                   <a14:compatExt spid="_x0000_s7419"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FB1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FB1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20947,7 +20971,7 @@
                   <a14:compatExt spid="_x0000_s7420"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FC1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FC1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21014,7 +21038,7 @@
                   <a14:compatExt spid="_x0000_s7421"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FD1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FD1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21081,7 +21105,7 @@
                   <a14:compatExt spid="_x0000_s7422"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FE1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FE1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21148,7 +21172,7 @@
                   <a14:compatExt spid="_x0000_s7423"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FF1C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FF1C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21215,7 +21239,7 @@
                   <a14:compatExt spid="_x0000_s7424"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000001D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000001D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21282,7 +21306,7 @@
                   <a14:compatExt spid="_x0000_s7425"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000011D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000011D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21349,7 +21373,7 @@
                   <a14:compatExt spid="_x0000_s7426"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000021D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000021D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21416,7 +21440,7 @@
                   <a14:compatExt spid="_x0000_s7427"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000031D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000031D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21483,7 +21507,7 @@
                   <a14:compatExt spid="_x0000_s7428"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000041D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000041D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21550,7 +21574,7 @@
                   <a14:compatExt spid="_x0000_s7429"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000051D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000051D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21617,7 +21641,7 @@
                   <a14:compatExt spid="_x0000_s7430"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000061D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000061D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21684,7 +21708,7 @@
                   <a14:compatExt spid="_x0000_s7431"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000071D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000071D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21751,7 +21775,7 @@
                   <a14:compatExt spid="_x0000_s7432"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000081D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000081D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21818,7 +21842,7 @@
                   <a14:compatExt spid="_x0000_s7433"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000091D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000091D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21885,7 +21909,7 @@
                   <a14:compatExt spid="_x0000_s7434"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21952,7 +21976,7 @@
                   <a14:compatExt spid="_x0000_s7435"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22019,7 +22043,7 @@
                   <a14:compatExt spid="_x0000_s7436"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22086,7 +22110,7 @@
                   <a14:compatExt spid="_x0000_s7437"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22153,7 +22177,7 @@
                   <a14:compatExt spid="_x0000_s7438"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22220,7 +22244,7 @@
                   <a14:compatExt spid="_x0000_s7439"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22287,7 +22311,7 @@
                   <a14:compatExt spid="_x0000_s7440"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000101D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000101D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22354,7 +22378,7 @@
                   <a14:compatExt spid="_x0000_s7441"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000111D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000111D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22421,7 +22445,7 @@
                   <a14:compatExt spid="_x0000_s7442"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000121D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000121D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22488,7 +22512,7 @@
                   <a14:compatExt spid="_x0000_s7443"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000131D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000131D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22555,7 +22579,7 @@
                   <a14:compatExt spid="_x0000_s7444"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000141D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000141D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22622,7 +22646,7 @@
                   <a14:compatExt spid="_x0000_s7445"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000151D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000151D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22689,7 +22713,7 @@
                   <a14:compatExt spid="_x0000_s7446"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000161D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000161D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22756,7 +22780,7 @@
                   <a14:compatExt spid="_x0000_s7447"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000171D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000171D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22823,7 +22847,7 @@
                   <a14:compatExt spid="_x0000_s7448"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000181D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000181D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22890,7 +22914,7 @@
                   <a14:compatExt spid="_x0000_s7449"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000191D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000191D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22957,7 +22981,7 @@
                   <a14:compatExt spid="_x0000_s7450"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23024,7 +23048,7 @@
                   <a14:compatExt spid="_x0000_s7451"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23091,7 +23115,7 @@
                   <a14:compatExt spid="_x0000_s7452"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23158,7 +23182,7 @@
                   <a14:compatExt spid="_x0000_s7453"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23225,7 +23249,7 @@
                   <a14:compatExt spid="_x0000_s7454"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23292,7 +23316,7 @@
                   <a14:compatExt spid="_x0000_s7455"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23359,7 +23383,7 @@
                   <a14:compatExt spid="_x0000_s7456"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000201D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000201D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23426,7 +23450,7 @@
                   <a14:compatExt spid="_x0000_s7457"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000211D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000211D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23493,7 +23517,7 @@
                   <a14:compatExt spid="_x0000_s7458"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000221D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000221D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23560,7 +23584,7 @@
                   <a14:compatExt spid="_x0000_s7459"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000231D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000231D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23627,7 +23651,7 @@
                   <a14:compatExt spid="_x0000_s7460"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000241D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000241D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23694,7 +23718,7 @@
                   <a14:compatExt spid="_x0000_s7461"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000251D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000251D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23761,7 +23785,7 @@
                   <a14:compatExt spid="_x0000_s7462"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000261D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000261D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23828,7 +23852,7 @@
                   <a14:compatExt spid="_x0000_s7463"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000271D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000271D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23895,7 +23919,7 @@
                   <a14:compatExt spid="_x0000_s7464"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000281D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000281D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23962,7 +23986,7 @@
                   <a14:compatExt spid="_x0000_s7465"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000291D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000291D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24029,7 +24053,7 @@
                   <a14:compatExt spid="_x0000_s7466"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24096,7 +24120,7 @@
                   <a14:compatExt spid="_x0000_s7467"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24163,7 +24187,7 @@
                   <a14:compatExt spid="_x0000_s7468"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24230,7 +24254,7 @@
                   <a14:compatExt spid="_x0000_s7469"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24297,7 +24321,7 @@
                   <a14:compatExt spid="_x0000_s7470"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24364,7 +24388,7 @@
                   <a14:compatExt spid="_x0000_s7471"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24431,7 +24455,7 @@
                   <a14:compatExt spid="_x0000_s7472"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000301D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000301D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24498,7 +24522,7 @@
                   <a14:compatExt spid="_x0000_s7473"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000311D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000311D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24565,7 +24589,7 @@
                   <a14:compatExt spid="_x0000_s7474"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000321D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000321D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24632,7 +24656,7 @@
                   <a14:compatExt spid="_x0000_s7475"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000331D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000331D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24699,7 +24723,7 @@
                   <a14:compatExt spid="_x0000_s7476"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000341D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000341D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24766,7 +24790,7 @@
                   <a14:compatExt spid="_x0000_s7477"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000351D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000351D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24833,7 +24857,7 @@
                   <a14:compatExt spid="_x0000_s7478"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000361D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000361D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24900,7 +24924,7 @@
                   <a14:compatExt spid="_x0000_s7479"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000371D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000371D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24967,7 +24991,7 @@
                   <a14:compatExt spid="_x0000_s7480"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000381D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000381D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25034,7 +25058,7 @@
                   <a14:compatExt spid="_x0000_s7481"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000391D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000391D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25101,7 +25125,7 @@
                   <a14:compatExt spid="_x0000_s7482"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25168,7 +25192,7 @@
                   <a14:compatExt spid="_x0000_s7483"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003B1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25235,7 +25259,7 @@
                   <a14:compatExt spid="_x0000_s7484"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003C1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25302,7 +25326,7 @@
                   <a14:compatExt spid="_x0000_s7485"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003D1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25369,7 +25393,7 @@
                   <a14:compatExt spid="_x0000_s7486"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003E1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25436,7 +25460,7 @@
                   <a14:compatExt spid="_x0000_s7487"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F1D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003F1D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25503,7 +25527,7 @@
                   <a14:compatExt spid="_x0000_s7488"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000401D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000401D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25570,7 +25594,7 @@
                   <a14:compatExt spid="_x0000_s7489"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000411D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000411D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25637,7 +25661,7 @@
                   <a14:compatExt spid="_x0000_s7490"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000421D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000421D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -25704,7 +25728,7 @@
                   <a14:compatExt spid="_x0000_s7491"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000431D0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000431D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26734,8 +26758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DA3FA6-D099-4263-8DE3-2A2BEBC9C26B}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -27319,8 +27343,15 @@
       <c r="G23" s="15"/>
       <c r="H23" s="18"/>
       <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
+      <c r="J23" s="96" t="s">
+        <v>339</v>
+      </c>
+      <c r="N23" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="R23" t="s">
+        <v>340</v>
+      </c>
       <c r="U23" s="96"/>
     </row>
     <row r="24" spans="1:36" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -27601,7 +27632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2A556D-9A34-4030-97BB-14CFF1F4EEEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -27614,8 +27645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73358577-4A3E-46BA-B952-D2EAE5B9F33E}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -27685,7 +27716,7 @@
         <v>321</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E11" s="12"/>
     </row>
@@ -27695,7 +27726,7 @@
         <v>320</v>
       </c>
       <c r="D12" s="96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E12" s="20"/>
     </row>
@@ -27705,7 +27736,7 @@
         <v>322</v>
       </c>
       <c r="D13" s="96" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E13" s="20"/>
     </row>
@@ -27715,7 +27746,7 @@
         <v>304</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E14" s="14"/>
     </row>
@@ -28396,7 +28427,7 @@
     <row r="1" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B2" s="20"/>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="152" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="76" t="s">
@@ -28426,7 +28457,7 @@
       </c>
     </row>
     <row r="3" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="152"/>
+      <c r="C3" s="153"/>
       <c r="D3" s="79" t="s">
         <v>85</v>
       </c>
@@ -28452,7 +28483,7 @@
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="C4" s="152"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="79" t="s">
         <v>139</v>
       </c>
@@ -28478,7 +28509,7 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="C5" s="152"/>
+      <c r="C5" s="153"/>
       <c r="D5" s="79" t="s">
         <v>133</v>
       </c>
@@ -28506,7 +28537,7 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="C6" s="152"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="79" t="s">
         <v>165</v>
       </c>
@@ -28532,7 +28563,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="C7" s="152"/>
+      <c r="C7" s="153"/>
       <c r="D7" s="79" t="s">
         <v>213</v>
       </c>
@@ -28558,7 +28589,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="152"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="79" t="s">
         <v>172</v>
       </c>
@@ -28586,7 +28617,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="152"/>
+      <c r="C9" s="153"/>
       <c r="D9" s="81"/>
       <c r="E9" s="82"/>
       <c r="F9" s="82"/>
@@ -28609,7 +28640,7 @@
       </c>
     </row>
     <row r="10" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="153"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="84" t="s">
         <v>12</v>
       </c>
@@ -28655,7 +28686,7 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="149" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="77" t="s">
@@ -28666,7 +28697,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="77"/>
       <c r="I12" s="78"/>
-      <c r="J12" s="154" t="s">
+      <c r="J12" s="148" t="s">
         <v>202</v>
       </c>
       <c r="L12" s="61" t="s">
@@ -28685,7 +28716,7 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="C13" s="149"/>
+      <c r="C13" s="150"/>
       <c r="D13" s="62" t="s">
         <v>138</v>
       </c>
@@ -28694,7 +28725,7 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
       <c r="I13" s="80"/>
-      <c r="J13" s="154"/>
+      <c r="J13" s="148"/>
       <c r="L13" s="61" t="s">
         <v>138</v>
       </c>
@@ -28711,7 +28742,7 @@
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="C14" s="149"/>
+      <c r="C14" s="150"/>
       <c r="D14" s="62" t="s">
         <v>177</v>
       </c>
@@ -28720,7 +28751,7 @@
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
       <c r="I14" s="80"/>
-      <c r="J14" s="154"/>
+      <c r="J14" s="148"/>
       <c r="L14" s="61" t="s">
         <v>132</v>
       </c>
@@ -28737,7 +28768,7 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="C15" s="149"/>
+      <c r="C15" s="150"/>
       <c r="D15" s="62" t="s">
         <v>197</v>
       </c>
@@ -28746,7 +28777,7 @@
       <c r="G15" s="62"/>
       <c r="H15" s="62"/>
       <c r="I15" s="80"/>
-      <c r="J15" s="154"/>
+      <c r="J15" s="148"/>
       <c r="L15" s="61" t="s">
         <v>133</v>
       </c>
@@ -28763,7 +28794,7 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="C16" s="149"/>
+      <c r="C16" s="150"/>
       <c r="D16" s="62" t="s">
         <v>132</v>
       </c>
@@ -28772,7 +28803,7 @@
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
       <c r="I16" s="80"/>
-      <c r="J16" s="154"/>
+      <c r="J16" s="148"/>
       <c r="L16" s="61" t="s">
         <v>134</v>
       </c>
@@ -28789,7 +28820,7 @@
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C17" s="149"/>
+      <c r="C17" s="150"/>
       <c r="D17" s="62" t="s">
         <v>149</v>
       </c>
@@ -28798,7 +28829,7 @@
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="154"/>
+      <c r="J17" s="148"/>
       <c r="L17" s="61" t="s">
         <v>136</v>
       </c>
@@ -28813,7 +28844,7 @@
       <c r="U17" s="50"/>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C18" s="149"/>
+      <c r="C18" s="150"/>
       <c r="D18" s="61" t="s">
         <v>180</v>
       </c>
@@ -28822,7 +28853,7 @@
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
       <c r="I18" s="80"/>
-      <c r="J18" s="154"/>
+      <c r="J18" s="148"/>
       <c r="L18" s="61" t="s">
         <v>137</v>
       </c>
@@ -28839,7 +28870,7 @@
       </c>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C19" s="149"/>
+      <c r="C19" s="150"/>
       <c r="D19" s="62" t="s">
         <v>181</v>
       </c>
@@ -28865,7 +28896,7 @@
       </c>
     </row>
     <row r="20" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="150"/>
+      <c r="C20" s="151"/>
       <c r="D20" s="87" t="s">
         <v>216</v>
       </c>
@@ -28925,7 +28956,7 @@
       </c>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="149" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="77" t="s">
@@ -28955,7 +28986,7 @@
       </c>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C24" s="149"/>
+      <c r="C24" s="150"/>
       <c r="D24" s="62" t="s">
         <v>185</v>
       </c>
@@ -28981,7 +29012,7 @@
       </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C25" s="149"/>
+      <c r="C25" s="150"/>
       <c r="D25" s="62" t="s">
         <v>179</v>
       </c>
@@ -29007,7 +29038,7 @@
       </c>
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C26" s="149"/>
+      <c r="C26" s="150"/>
       <c r="D26" s="62" t="s">
         <v>182</v>
       </c>
@@ -29033,7 +29064,7 @@
       </c>
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C27" s="149"/>
+      <c r="C27" s="150"/>
       <c r="D27" s="62" t="s">
         <v>183</v>
       </c>
@@ -29045,7 +29076,7 @@
       <c r="J27" s="127"/>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C28" s="149"/>
+      <c r="C28" s="150"/>
       <c r="D28" s="61" t="s">
         <v>184</v>
       </c>
@@ -29057,7 +29088,7 @@
       <c r="J28" s="127"/>
     </row>
     <row r="29" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C29" s="149"/>
+      <c r="C29" s="150"/>
       <c r="D29" s="61" t="s">
         <v>186</v>
       </c>
@@ -29069,7 +29100,7 @@
       <c r="J29" s="127"/>
     </row>
     <row r="30" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="150"/>
+      <c r="C30" s="151"/>
       <c r="D30" s="87" t="s">
         <v>187</v>
       </c>
@@ -29302,7 +29333,7 @@
       <c r="Q43" s="63"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C44" s="148" t="s">
+      <c r="C44" s="149" t="s">
         <v>192</v>
       </c>
       <c r="D44" s="77" t="s">
@@ -29324,7 +29355,7 @@
       <c r="Q44" s="63"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C45" s="149"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="62" t="s">
         <v>152</v>
       </c>
@@ -29344,7 +29375,7 @@
       <c r="Q45" s="63"/>
     </row>
     <row r="46" spans="3:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C46" s="150"/>
+      <c r="C46" s="151"/>
       <c r="D46" s="82" t="s">
         <v>154</v>
       </c>
@@ -29429,7 +29460,7 @@
     </row>
     <row r="52" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="53" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C53" s="148" t="s">
+      <c r="C53" s="149" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="77"/>
@@ -29443,7 +29474,7 @@
       </c>
     </row>
     <row r="54" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C54" s="150"/>
+      <c r="C54" s="151"/>
       <c r="D54" s="82"/>
       <c r="E54" s="82" t="s">
         <v>167</v>
@@ -29501,7 +29532,7 @@
     </row>
     <row r="60" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="61" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C61" s="148" t="s">
+      <c r="C61" s="149" t="s">
         <v>190</v>
       </c>
       <c r="D61" s="77" t="s">
@@ -29514,7 +29545,7 @@
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C62" s="149"/>
+      <c r="C62" s="150"/>
       <c r="D62" s="62" t="s">
         <v>174</v>
       </c>
@@ -29525,7 +29556,7 @@
       </c>
     </row>
     <row r="63" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C63" s="150"/>
+      <c r="C63" s="151"/>
       <c r="D63" s="82" t="s">
         <v>178</v>
       </c>
@@ -29537,7 +29568,7 @@
     </row>
     <row r="64" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="65" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C65" s="148" t="s">
+      <c r="C65" s="149" t="s">
         <v>163</v>
       </c>
       <c r="D65" s="77"/>
@@ -29549,7 +29580,7 @@
       </c>
     </row>
     <row r="66" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C66" s="150"/>
+      <c r="C66" s="151"/>
       <c r="D66" s="87"/>
       <c r="E66" s="83" t="s">
         <v>140</v>
@@ -29909,6 +29940,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="C23:C30"/>
     <mergeCell ref="J65:J66"/>
     <mergeCell ref="J43:J45"/>
     <mergeCell ref="J32:J34"/>
@@ -29917,13 +29955,6 @@
     <mergeCell ref="J12:J18"/>
     <mergeCell ref="J23:J30"/>
     <mergeCell ref="J53:J54"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="C23:C30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
